--- a/在经典比赛中GLM模型残差.xlsx
+++ b/在经典比赛中GLM模型残差.xlsx
@@ -440,1672 +440,1672 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.6527905289815709</v>
+        <v>-0.667041213329906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1577356883276522</v>
+        <v>-0.2443829292712241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3485297422609713</v>
+        <v>-0.3509771252211176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5145202357695933</v>
+        <v>-0.4719964584602716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.3200272239073846</v>
+        <v>-0.3241091882266629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.3925964176814777</v>
+        <v>-0.3537241967998153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.233572215130664</v>
+        <v>-0.2233969298139211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.04542875778272587</v>
+        <v>-0.08782401445442833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.07282591626947135</v>
+        <v>-0.02283801305136413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.02931788450662848</v>
+        <v>-0.05813056099671232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.07942374982690704</v>
+        <v>-0.1426920760626735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04069023022021401</v>
+        <v>-0.1157835635996897</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.243640991264978</v>
+        <v>0.08413537888183448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4866796012816369</v>
+        <v>0.302250652724265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4750353262311007</v>
+        <v>0.3011999395332555</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2075429696195639</v>
+        <v>0.08518375690986787</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2595172424175324</v>
+        <v>0.232726571189144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1605516411157094</v>
+        <v>0.04500175534643186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.03687015149468642</v>
+        <v>-0.08741768252950649</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1581809296380101</v>
+        <v>-0.154205469841307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01805910047862758</v>
+        <v>0.07023547045118522</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.125442027182665</v>
+        <v>-0.1495683288231995</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.3124143137911205</v>
+        <v>-0.3463615722529264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1221409929109112</v>
+        <v>-0.04931297283415437</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.05385889948552119</v>
+        <v>-0.02452770610033553</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.09839663962783732</v>
+        <v>-0.03707916089983648</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2517689519876325</v>
+        <v>0.1226770299791518</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.3710317536687636</v>
+        <v>0.2292512837995219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1603986231583565</v>
+        <v>0.1223563488875778</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1229221007467993</v>
+        <v>0.02377814871619444</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.002240878628911092</v>
+        <v>0.02111442660900908</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.07388272736677545</v>
+        <v>0.0141791864757401</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2476022828191753</v>
+        <v>0.147521054338711</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2367579607983583</v>
+        <v>0.1872476611908417</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2529352727907957</v>
+        <v>0.1890073944969657</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.08441628068960613</v>
+        <v>0.07011894073753056</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.226652165248131</v>
+        <v>0.2219230471181056</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.07295082902818091</v>
+        <v>-0.02297099910678045</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.1589676752037825</v>
+        <v>-0.01168629049986908</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.05707391777654783</v>
+        <v>-0.09035586407365878</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1246089061058061</v>
+        <v>0.1377890226033661</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.160428029559802</v>
+        <v>0.2153112120104732</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.06283475455828261</v>
+        <v>0.01845461718228383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.08904043189785221</v>
+        <v>-0.1537216399506101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.12953669175098</v>
+        <v>-0.2231275615221571</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.1970888772116995</v>
+        <v>-0.2797525542108175</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.06290246680091754</v>
+        <v>-0.1207050344524999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1967378298108253</v>
+        <v>0.1294464247722709</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.306321359931914</v>
+        <v>0.2668427028158076</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.3123628567525953</v>
+        <v>0.2575180173008009</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.3460610785208096</v>
+        <v>0.190154203740765</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.266176327879286</v>
+        <v>0.245564711098525</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1086776110933323</v>
+        <v>0.1423061985677716</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1052893962731555</v>
+        <v>0.1294161153416564</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.08067272464298272</v>
+        <v>0.06635752596537005</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2026414368425843</v>
+        <v>0.09694378248765283</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.2101496674423628</v>
+        <v>0.1966101376481209</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.0139972406808324</v>
+        <v>0.04002671948127805</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.110694845459022</v>
+        <v>0.1003786206885132</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.127665599221054</v>
+        <v>0.1464540943991333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.04420490001736799</v>
+        <v>0.1650128257374891</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.1380827869094922</v>
+        <v>-0.1406587913764036</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.3360491072598859</v>
+        <v>-0.2813609626581364</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.4530504193919276</v>
+        <v>-0.3319207324660122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.1531939510942565</v>
+        <v>-0.05001381626056299</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.1678237453377119</v>
+        <v>-0.09801387833247942</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.02691624523706345</v>
+        <v>0.03948091016148448</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.008485601328474694</v>
+        <v>0.02330202944542176</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1671672024973596</v>
+        <v>0.1259447286614984</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.02353888644093835</v>
+        <v>0.01502746714963175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.03279591539596333</v>
+        <v>0.02008710348619341</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.1629455329490652</v>
+        <v>-0.1763701840028588</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.02227758167369408</v>
+        <v>-0.06336928552769377</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.09439422628239505</v>
+        <v>-0.1157158513460828</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.183697768821099</v>
+        <v>0.1968754914174128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.07781076903470741</v>
+        <v>0.03650567013751549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.1156626195013782</v>
+        <v>-0.1663388935384215</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1759056953039116</v>
+        <v>0.01858788759900204</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.2690342166093225</v>
+        <v>0.2129857395256368</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1005084652293579</v>
+        <v>0.03681149566490216</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1798024863452621</v>
+        <v>0.1356354347091104</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2663182453222565</v>
+        <v>0.2102445253080207</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3270668835231827</v>
+        <v>0.273802228364837</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.335431291408599</v>
+        <v>0.2984688358198624</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4864223099885348</v>
+        <v>0.4053557480151944</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4128243887525894</v>
+        <v>0.3481202486463498</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.3760443705077209</v>
+        <v>0.5114184078702939</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.04511382809904331</v>
+        <v>0.2115507984834265</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.3022145434077932</v>
+        <v>-0.09788495256574534</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.2875136611526563</v>
+        <v>-0.1366491282600486</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.2068852938532923</v>
+        <v>-0.1317580535079573</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.2471729394378127</v>
+        <v>-0.2001486386753773</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.2555512080612898</v>
+        <v>-0.3044701767280742</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.1860024333267459</v>
+        <v>-0.2100316434878104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.1090275889660114</v>
+        <v>-0.04314256559097637</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.06007516676528707</v>
+        <v>0.1067033025975616</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4626187401525962</v>
+        <v>0.4450773741936905</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.2878464164339923</v>
+        <v>0.211611247835492</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.08157939357131483</v>
+        <v>0.09331164008538159</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.05086151125098964</v>
+        <v>-0.01153725341313649</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.02263249492570901</v>
+        <v>-0.1258254766754942</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.1652212633507481</v>
+        <v>-0.2397181097102035</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.04600311500573905</v>
+        <v>-0.09395812362814464</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1970483606047072</v>
+        <v>0.1380409027747662</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.03108560031672938</v>
+        <v>0.00456717652464414</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.01438463415999161</v>
+        <v>-0.02101809783593978</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.2073583047721939</v>
+        <v>0.2373931766440684</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.01777846662807203</v>
+        <v>0.02303042030596</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.0001792172050277263</v>
+        <v>0.02084214358642406</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.008440351816746572</v>
+        <v>-0.04509301610967847</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.156866472981664</v>
+        <v>-0.11144402402819</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.1395090948184672</v>
+        <v>-0.1767964166019861</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.1616174903160662</v>
+        <v>-0.1357243901329935</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.1342716802733334</v>
+        <v>-0.1925539619212714</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.1984648127700167</v>
+        <v>-0.1996327421440807</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.04703799005033218</v>
+        <v>-0.04474967335741128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.04518614937061175</v>
+        <v>0.01936037410433129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.24016941484701</v>
+        <v>0.2056971622192526</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.0770874230027308</v>
+        <v>0.03262090883267293</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.1610271117426088</v>
+        <v>0.2474114540453421</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.1407967384025504</v>
+        <v>-0.2641256042995764</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.2786562072339236</v>
+        <v>-0.201778081681849</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.2030139392916103</v>
+        <v>-0.1895542367439697</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.3256103645102558</v>
+        <v>-0.2034759864086397</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.2980533810274797</v>
+        <v>-0.2444170756434261</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.3952718560558397</v>
+        <v>-0.4228152158144989</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.0517707909034745</v>
+        <v>-0.0732730307187773</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.1773032623240242</v>
+        <v>-0.1916666332123297</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.1024831066335812</v>
+        <v>-0.23064535189905</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.2346946753684795</v>
+        <v>0.1228165678711046</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.3069904960858577</v>
+        <v>0.2752931075875208</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1754626433746214</v>
+        <v>0.2153623631478077</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.03308656457631298</v>
+        <v>-0.04210246267866169</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.1266667323348131</v>
+        <v>-0.1703326369079939</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.05954791986162332</v>
+        <v>0.116734505765823</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.1906355684257185</v>
+        <v>0.2761597067360335</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.03333066679271093</v>
+        <v>-0.1021058162574245</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.04404824944673388</v>
+        <v>0.06224594266329445</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.09052384007911525</v>
+        <v>0.1330620264424591</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.04718423765413495</v>
+        <v>-0.03881114096290827</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-0.1744890033660865</v>
+        <v>-0.2056096740168745</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.2188572540390491</v>
+        <v>-0.266969483213865</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.1327078314714502</v>
+        <v>0.01379266712167518</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.172242013673266</v>
+        <v>0.1120600886817693</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.00869994917936482</v>
+        <v>-0.02940543596526384</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.1677093056086176</v>
+        <v>0.1500737583880143</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.05997256632664397</v>
+        <v>-0.01152071508558927</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.06036063798571042</v>
+        <v>-0.1159746816612596</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.08332771231182169</v>
+        <v>-0.05369319746332583</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2614624590916499</v>
+        <v>0.1992876763302568</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.06386568969022931</v>
+        <v>0.005807587366490188</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.1023721629164689</v>
+        <v>-0.1434850650241094</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.1083902523197154</v>
+        <v>0.01231762271334252</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.0786384817700567</v>
+        <v>-0.02461716388320821</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.01598582406064007</v>
+        <v>-0.007706032993932951</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.0680911558330581</v>
+        <v>0.02150985139440439</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.2562236013413903</v>
+        <v>-0.1431285399100556</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.2662263742629327</v>
+        <v>-0.1792828502158887</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.3971031386068254</v>
+        <v>-0.4021756439868406</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.370898869441823</v>
+        <v>-0.425295330861411</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.2531826965515875</v>
+        <v>-0.2699782338911523</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.07878531880851875</v>
+        <v>-0.115173073604544</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.003706537040607943</v>
+        <v>-0.1132363179718552</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1127648680729901</v>
+        <v>-0.003413921284118465</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.3170264255312459</v>
+        <v>0.2170215665978092</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.151621897771699</v>
+        <v>0.124326973726813</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.0621610826884049</v>
+        <v>-0.001774731053130696</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3101791698976691</v>
+        <v>0.2490678573143318</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.03052061742109929</v>
+        <v>-0.007283996474698157</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1136748949712511</v>
+        <v>0.02573992661007951</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4071172826903728</v>
+        <v>0.2351224391233403</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.5723880152570842</v>
+        <v>0.4032063287231979</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.3381245797800039</v>
+        <v>0.224598617126272</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2649580893871829</v>
+        <v>0.1944635211616995</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.4156200167542483</v>
+        <v>0.2713542162540714</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.2783556660979356</v>
+        <v>0.2528381854588982</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.3584099612328688</v>
+        <v>0.2762165901410191</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.07287126005530323</v>
+        <v>0.046355351446576</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.02958006913874028</v>
+        <v>0.01115790506845339</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.08425547154856558</v>
+        <v>0.03325050098797211</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.2111559067151876</v>
+        <v>0.09437346198138964</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.0347937349893658</v>
+        <v>-0.1397747856132139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.1396356529296969</v>
+        <v>0.1122401339474674</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1035538878157904</v>
+        <v>0.070907821711903</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.246252831249473</v>
+        <v>0.1171466766478056</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2584169380737638</v>
+        <v>0.2284189241830971</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.04363942267006918</v>
+        <v>-0.04670212116923468</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.156687982279883</v>
+        <v>-0.1645517622332793</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.07619241685336739</v>
+        <v>-0.1778760547404937</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.02754446329747757</v>
+        <v>-0.06867406152816166</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.1940528732854642</v>
+        <v>-0.1808917386009094</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.1367800536705344</v>
+        <v>-0.1671701783180229</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.2550062085861901</v>
+        <v>-0.2687328496549652</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.1652897222817515</v>
+        <v>-0.1981223086469965</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.257439219603759</v>
+        <v>-0.2853497090089093</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.1923794609710864</v>
+        <v>-0.2337442413680021</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.07111266730235075</v>
+        <v>-0.04412294224569092</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.1496001517054505</v>
+        <v>0.1478367521174148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.1466870462992276</v>
+        <v>-0.1185269100399664</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.05761314265622906</v>
+        <v>-0.06849495467426985</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.07257385848567241</v>
+        <v>0.07040753003023997</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.1959871530394385</v>
+        <v>0.2300376277076225</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.1887374690894811</v>
+        <v>0.2294430688485046</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.2912439131620579</v>
+        <v>0.3057814568099007</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.3570144744704275</v>
+        <v>0.4198053564132817</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.1285675445815047</v>
+        <v>0.2143677400744494</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.1937196101691555</v>
+        <v>-0.07361973968067738</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.45463279520054</v>
+        <v>-0.3176378072960133</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.4420658241645209</v>
+        <v>-0.3259837365268712</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.001683801218160322</v>
+        <v>-0.07656955652573448</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.0675195189025814</v>
+        <v>0.05243309738697718</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.1284557736859938</v>
+        <v>-0.07507981292594625</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.1922484872031903</v>
+        <v>0.01097198812812189</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1809755502082436</v>
+        <v>0.1113235515106811</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.2576158422917334</v>
+        <v>0.2138312954418651</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.3105224655015613</v>
+        <v>0.4253794002702366</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.01326438654337056</v>
+        <v>0.1775640375232577</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.219992274931521</v>
+        <v>0.002056030972514666</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.3403920100676458</v>
+        <v>-0.251339074693797</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-0.4917339823023402</v>
+        <v>-0.365016314975563</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.3021912270120674</v>
+        <v>-0.1835950747073563</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.167396322104612</v>
+        <v>-0.03400982326014976</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.09051650072498164</v>
+        <v>-0.05327103034222566</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-0.02771144523264421</v>
+        <v>-0.04856585256653626</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-0.2191023244226246</v>
+        <v>-0.1070730706040751</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-0.2626207268128314</v>
+        <v>-0.3251256807496398</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.02747026273097614</v>
+        <v>-0.0005098724010176303</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.0616056408929862</v>
+        <v>0.05924947909489142</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.1525472368785413</v>
+        <v>0.1592295628323607</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.2081162960944265</v>
+        <v>0.1702352353134899</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.03988596095390378</v>
+        <v>0.1581399500908138</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.1692540791583457</v>
+        <v>0.1221945574245475</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.150964284970034</v>
+        <v>0.1446898106425422</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.09536948894919794</v>
+        <v>0.07764176565557365</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.02319535666199032</v>
+        <v>0.03434075325629818</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.2706546060104725</v>
+        <v>0.3918144271391029</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.1657658367476465</v>
+        <v>0.1884168946571723</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.265887023067591</v>
+        <v>0.24667409440523</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1811180573056601</v>
+        <v>0.2133872222568438</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.0635922079515614</v>
+        <v>0.1646437040342889</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.04018783322620705</v>
+        <v>0.08425186465930087</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.1035330488242991</v>
+        <v>-0.02911118346843219</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.03327157425680785</v>
+        <v>0.07827294866452987</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.2493697119127902</v>
+        <v>-0.2755373437533383</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-0.3604017627222564</v>
+        <v>-0.3534475621905689</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.1601925470010601</v>
+        <v>-0.2242770640037209</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-0.138630411049542</v>
+        <v>-0.1865739613872677</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-0.04136985554686881</v>
+        <v>-0.1172479124215202</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.1142831633483871</v>
+        <v>-0.01305467061151724</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.2126829941903211</v>
+        <v>0.1508233315363746</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.2695056211483611</v>
+        <v>0.1038472789082427</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.116961550232256</v>
+        <v>0.01586952473854497</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.1342037034854405</v>
+        <v>-0.02124987317738397</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.179108580901474</v>
+        <v>0.2191558180170503</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.1624897106279485</v>
+        <v>0.1396543291828454</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.005103629606329846</v>
+        <v>0.05255328581952295</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.08501601256130574</v>
+        <v>0.03968680318762378</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.1923227465775344</v>
+        <v>0.1452121213073936</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.01449545953151274</v>
+        <v>-0.03488514018896338</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-0.1936441831691093</v>
+        <v>-0.23643907735682</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.05151953853862118</v>
+        <v>-0.03723770916023744</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.1782791994250444</v>
+        <v>0.1412642846157102</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.1522037693333757</v>
+        <v>0.1344349012252941</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.2824555707770948</v>
+        <v>0.2934398813624129</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.3755752527077236</v>
+        <v>0.418961490667194</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.08894295036944125</v>
+        <v>0.01397496426165954</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-0.008520576289176407</v>
+        <v>-0.06170133907165001</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.07750124274807468</v>
+        <v>-0.1347692699503752</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.2198655841143426</v>
+        <v>-0.231215133169993</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-0.1313872237948002</v>
+        <v>-0.07872047208972921</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-0.1143965476077832</v>
+        <v>-0.216869749472696</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.2077739980397006</v>
+        <v>0.05099831416314697</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.1367258726822373</v>
+        <v>0.1638043985345212</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-0.1058191801794937</v>
+        <v>-0.2013642392728039</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.1772430027156708</v>
+        <v>0.01110412676683264</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.3895370505095685</v>
+        <v>0.227127621265071</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.3936005006746597</v>
+        <v>0.2269457327135999</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.2417709319087266</v>
+        <v>0.1856804302869292</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.1627974814713997</v>
+        <v>0.1190196118968484</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.1001568278794563</v>
+        <v>0.04000893827068483</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.1805049036139068</v>
+        <v>0.04353373303300842</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-0.2424718231463198</v>
+        <v>-0.2692652033375275</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-0.05912981211555969</v>
+        <v>-0.1992691228328348</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-0.07737010473066881</v>
+        <v>-0.1215434420417331</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.01725270422780349</v>
+        <v>-0.1132390450758333</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.09421100928499031</v>
+        <v>-0.08317184225199865</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.08552561541731848</v>
+        <v>-0.04375016271286924</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.05899710220430976</v>
+        <v>0.03938973086943118</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.04227212543150207</v>
+        <v>-0.1496927739909144</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.05368940758561336</v>
+        <v>0.07440147259275109</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-0.08336522571097295</v>
+        <v>-0.02994140534796933</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.1524556617622961</v>
+        <v>-0.1683417517228496</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.3489431054185158</v>
+        <v>-0.327308163505825</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-0.1507063089917802</v>
+        <v>-0.1926517745452804</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.1381438296749293</v>
+        <v>-0.1176702640408269</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-0.2673310156985576</v>
+        <v>-0.2743399735420803</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-0.3308672874661043</v>
+        <v>-0.3229061013105933</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-0.0655150628383338</v>
+        <v>-0.04267020838324909</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.09038662229204658</v>
+        <v>0.1240323065960017</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.1073324450363164</v>
+        <v>0.1317878620956284</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.2027158654831994</v>
+        <v>0.2336065125128509</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.2433395233098615</v>
+        <v>0.277975617252388</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.04977317434125095</v>
+        <v>0.01478951910365009</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.008343276611474493</v>
+        <v>-0.04188967882011302</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-0.081282681446747</v>
+        <v>-0.1701141722912755</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-0.152802589770383</v>
+        <v>-0.1856606007013723</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-0.306499422848051</v>
+        <v>-0.334881351122723</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-0.02345257249547178</v>
+        <v>-0.1575659438425505</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.08529544089624991</v>
+        <v>0.03073756199274141</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.2808335487011252</v>
+        <v>0.1579715503628466</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.2382917502450516</v>
+        <v>0.1630984080726446</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.3339459128222988</v>
+        <v>0.2787004489057454</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.2708003947954647</v>
+        <v>0.391915922952679</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.1393215491023728</v>
+        <v>0.1650985269595182</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.008536677134933142</v>
+        <v>0.1246890380530918</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.002196871638139697</v>
+        <v>0.06448208995617553</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.1358511370865272</v>
+        <v>0.003349440013737826</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-0.1600370820997445</v>
+        <v>-0.0993205113688983</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-0.276580204950643</v>
+        <v>-0.3302599253781427</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.04394703491405755</v>
+        <v>-0.06638004775844875</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>-0.03256358595018355</v>
+        <v>-0.07636467020235516</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-0.04922985187661991</v>
+        <v>-0.08809785391060196</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-0.05738306172245206</v>
+        <v>-0.06932930625718792</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.1306901168017995</v>
+        <v>0.1914121902168258</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.07667121910066774</v>
+        <v>0.06047240764161937</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-0.01733037281741134</v>
+        <v>-0.05255193525573121</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-0.05320539509711303</v>
+        <v>-0.09238560475061375</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>-0.2806508229694342</v>
+        <v>-0.3305277826717207</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-0.4176419248196716</v>
+        <v>-0.4962342876653886</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>-0.05316043439927448</v>
+        <v>-0.2085771976073278</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.102652398579909</v>
+        <v>0.06184000479109925</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.08791788513733306</v>
+        <v>0.06607165245814517</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.258061024080352</v>
+        <v>0.182453456228586</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.3218454903698449</v>
+        <v>0.2596548495352373</v>
       </c>
     </row>
   </sheetData>
